--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_47.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_47.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Momoko Yamaguchi</t>
+          <t>Satomi Nakamura</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
